--- a/biology/Botanique/Parc_public_Hasenheide/Parc_public_Hasenheide.xlsx
+++ b/biology/Botanique/Parc_public_Hasenheide/Parc_public_Hasenheide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Parc public Hasenheide (Volkspark Hasenheide) est un espace vert d'environ 50 hectares dans le quartier Neukölln dans l'arrondissement de Neukölln dans la capitale allemande Berlin. Il est situé entre Südstern et Hermannplatz au nord et le parc de l'ancien aéroport de Berlin-Tempelhof au sud.
